--- a/excelproject/CS2.xlsx
+++ b/excelproject/CS2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saisamarth/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saisamarth/Desktop/Projects/demo/excelproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B760E6-7146-8246-9C80-0A1F22DA55E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5E742-1090-0A4F-A3FE-28411777A22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3E2FA385-5EC7-074B-8697-5A2EBAA3CF09}"/>
   </bookViews>
@@ -154,10 +154,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,7 +456,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
